--- a/data_year/zb/批发和零售业/限额以上零售业企业基本情况和商品购销存情况/按国民经济行业分限额以上零售业法人企业数.xlsx
+++ b/data_year/zb/批发和零售业/限额以上零售业企业基本情况和商品购销存情况/按国民经济行业分限额以上零售业法人企业数.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V14"/>
+  <dimension ref="A1:V13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -543,911 +543,841 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1921</v>
+        <v>2712</v>
       </c>
       <c r="C2" t="n">
         <v>83</v>
       </c>
       <c r="D2" t="n">
-        <v>2411</v>
+        <v>3039</v>
       </c>
       <c r="E2" t="n">
-        <v>1480</v>
+        <v>1553</v>
       </c>
       <c r="F2" t="n">
-        <v>5355</v>
+        <v>7068</v>
       </c>
       <c r="G2" t="n">
-        <v>2627</v>
+        <v>2887</v>
       </c>
       <c r="H2" t="n">
-        <v>1970</v>
+        <v>2356</v>
       </c>
       <c r="I2" t="n">
-        <v>2470</v>
+        <v>3882</v>
       </c>
       <c r="J2" t="n">
-        <v>1366</v>
+        <v>1587</v>
       </c>
       <c r="K2" t="n">
-        <v>3287</v>
+        <v>4083</v>
       </c>
       <c r="L2" t="n">
-        <v>13791</v>
+        <v>18255</v>
       </c>
       <c r="M2" t="n">
-        <v>9082</v>
+        <v>12262</v>
       </c>
       <c r="N2" t="n">
-        <v>3972</v>
+        <v>4708</v>
       </c>
       <c r="O2" t="n">
-        <v>2487</v>
+        <v>2932</v>
       </c>
       <c r="P2" t="n">
-        <v>9198</v>
+        <v>10418</v>
       </c>
       <c r="Q2" t="n">
-        <v>2139</v>
+        <v>2634</v>
       </c>
       <c r="R2" t="n">
-        <v>1794</v>
+        <v>2079</v>
       </c>
       <c r="S2" t="n">
-        <v>3761</v>
+        <v>4139</v>
       </c>
       <c r="T2" t="n">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="U2" t="n">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="V2" t="n">
-        <v>1743</v>
+        <v>2639</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1964</v>
+        <v>3132</v>
       </c>
       <c r="C3" t="n">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="D3" t="n">
-        <v>2484</v>
+        <v>3352</v>
       </c>
       <c r="E3" t="n">
-        <v>1528</v>
+        <v>1487</v>
       </c>
       <c r="F3" t="n">
-        <v>5536</v>
+        <v>8189</v>
       </c>
       <c r="G3" t="n">
-        <v>2656</v>
+        <v>2943</v>
       </c>
       <c r="H3" t="n">
-        <v>1891</v>
+        <v>2707</v>
       </c>
       <c r="I3" t="n">
-        <v>2708</v>
+        <v>4731</v>
       </c>
       <c r="J3" t="n">
-        <v>1362</v>
+        <v>1741</v>
       </c>
       <c r="K3" t="n">
-        <v>3317</v>
+        <v>4528</v>
       </c>
       <c r="L3" t="n">
-        <v>14531</v>
+        <v>21131</v>
       </c>
       <c r="M3" t="n">
-        <v>9712</v>
+        <v>14479</v>
       </c>
       <c r="N3" t="n">
-        <v>4077</v>
+        <v>4759</v>
       </c>
       <c r="O3" t="n">
-        <v>2481</v>
+        <v>3232</v>
       </c>
       <c r="P3" t="n">
-        <v>9214</v>
+        <v>10559</v>
       </c>
       <c r="Q3" t="n">
-        <v>2186</v>
+        <v>2881</v>
       </c>
       <c r="R3" t="n">
-        <v>1800</v>
+        <v>2312</v>
       </c>
       <c r="S3" t="n">
-        <v>3766</v>
+        <v>4340</v>
       </c>
       <c r="T3" t="n">
-        <v>668</v>
+        <v>752</v>
       </c>
       <c r="U3" t="n">
-        <v>58</v>
+        <v>106</v>
       </c>
       <c r="V3" t="n">
-        <v>1858</v>
+        <v>3226</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2712</v>
+        <v>3660</v>
       </c>
       <c r="C4" t="n">
-        <v>83</v>
+        <v>117</v>
       </c>
       <c r="D4" t="n">
-        <v>3039</v>
+        <v>3762</v>
       </c>
       <c r="E4" t="n">
-        <v>1553</v>
+        <v>1437</v>
       </c>
       <c r="F4" t="n">
-        <v>7068</v>
+        <v>9127</v>
       </c>
       <c r="G4" t="n">
-        <v>2887</v>
+        <v>3155</v>
       </c>
       <c r="H4" t="n">
-        <v>2356</v>
+        <v>2942</v>
       </c>
       <c r="I4" t="n">
-        <v>3882</v>
+        <v>4012</v>
       </c>
       <c r="J4" t="n">
-        <v>1587</v>
+        <v>1994</v>
       </c>
       <c r="K4" t="n">
-        <v>4083</v>
+        <v>4815</v>
       </c>
       <c r="L4" t="n">
-        <v>18255</v>
+        <v>24396</v>
       </c>
       <c r="M4" t="n">
-        <v>12262</v>
+        <v>17365</v>
       </c>
       <c r="N4" t="n">
-        <v>4708</v>
+        <v>4933</v>
       </c>
       <c r="O4" t="n">
-        <v>2932</v>
+        <v>3779</v>
       </c>
       <c r="P4" t="n">
-        <v>10418</v>
+        <v>10726</v>
       </c>
       <c r="Q4" t="n">
-        <v>2634</v>
+        <v>3165</v>
       </c>
       <c r="R4" t="n">
-        <v>2079</v>
+        <v>2545</v>
       </c>
       <c r="S4" t="n">
-        <v>4139</v>
+        <v>4482</v>
       </c>
       <c r="T4" t="n">
-        <v>732</v>
+        <v>829</v>
       </c>
       <c r="U4" t="n">
-        <v>73</v>
+        <v>148</v>
       </c>
       <c r="V4" t="n">
-        <v>2639</v>
+        <v>4374</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3132</v>
+        <v>5301</v>
       </c>
       <c r="C5" t="n">
-        <v>96</v>
+        <v>147</v>
       </c>
       <c r="D5" t="n">
-        <v>3352</v>
+        <v>4391</v>
       </c>
       <c r="E5" t="n">
-        <v>1487</v>
+        <v>1439</v>
       </c>
       <c r="F5" t="n">
-        <v>8189</v>
+        <v>10609</v>
       </c>
       <c r="G5" t="n">
-        <v>2943</v>
+        <v>3914</v>
       </c>
       <c r="H5" t="n">
-        <v>2707</v>
+        <v>3551</v>
       </c>
       <c r="I5" t="n">
-        <v>4731</v>
+        <v>4146</v>
       </c>
       <c r="J5" t="n">
-        <v>1741</v>
+        <v>2592</v>
       </c>
       <c r="K5" t="n">
-        <v>4528</v>
+        <v>5831</v>
       </c>
       <c r="L5" t="n">
-        <v>21131</v>
+        <v>28717</v>
       </c>
       <c r="M5" t="n">
-        <v>14479</v>
+        <v>20345</v>
       </c>
       <c r="N5" t="n">
-        <v>4759</v>
+        <v>5838</v>
       </c>
       <c r="O5" t="n">
-        <v>3232</v>
+        <v>5046</v>
       </c>
       <c r="P5" t="n">
-        <v>10559</v>
+        <v>12180</v>
       </c>
       <c r="Q5" t="n">
-        <v>2881</v>
+        <v>3573</v>
       </c>
       <c r="R5" t="n">
-        <v>2312</v>
+        <v>2824</v>
       </c>
       <c r="S5" t="n">
-        <v>4340</v>
+        <v>4881</v>
       </c>
       <c r="T5" t="n">
-        <v>752</v>
+        <v>946</v>
       </c>
       <c r="U5" t="n">
-        <v>106</v>
+        <v>253</v>
       </c>
       <c r="V5" t="n">
-        <v>3226</v>
+        <v>6657</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3660</v>
+        <v>5855</v>
       </c>
       <c r="C6" t="n">
-        <v>117</v>
+        <v>160</v>
       </c>
       <c r="D6" t="n">
-        <v>3762</v>
+        <v>4770</v>
       </c>
       <c r="E6" t="n">
-        <v>1437</v>
+        <v>1469</v>
       </c>
       <c r="F6" t="n">
-        <v>9127</v>
+        <v>11249</v>
       </c>
       <c r="G6" t="n">
-        <v>3155</v>
+        <v>4202</v>
       </c>
       <c r="H6" t="n">
-        <v>2942</v>
+        <v>3996</v>
       </c>
       <c r="I6" t="n">
-        <v>4012</v>
+        <v>4249</v>
       </c>
       <c r="J6" t="n">
-        <v>1994</v>
+        <v>2761</v>
       </c>
       <c r="K6" t="n">
-        <v>4815</v>
+        <v>6404</v>
       </c>
       <c r="L6" t="n">
-        <v>24396</v>
+        <v>31782</v>
       </c>
       <c r="M6" t="n">
-        <v>17365</v>
+        <v>22802</v>
       </c>
       <c r="N6" t="n">
-        <v>4933</v>
+        <v>6232</v>
       </c>
       <c r="O6" t="n">
-        <v>3779</v>
+        <v>5415</v>
       </c>
       <c r="P6" t="n">
-        <v>10726</v>
+        <v>12859</v>
       </c>
       <c r="Q6" t="n">
-        <v>3165</v>
+        <v>3827</v>
       </c>
       <c r="R6" t="n">
-        <v>2545</v>
+        <v>2945</v>
       </c>
       <c r="S6" t="n">
-        <v>4482</v>
+        <v>5165</v>
       </c>
       <c r="T6" t="n">
-        <v>829</v>
+        <v>1087</v>
       </c>
       <c r="U6" t="n">
-        <v>148</v>
+        <v>555</v>
       </c>
       <c r="V6" t="n">
-        <v>4374</v>
+        <v>7524</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2013年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5301</v>
+        <v>6071</v>
       </c>
       <c r="C7" t="n">
-        <v>147</v>
+        <v>176</v>
       </c>
       <c r="D7" t="n">
-        <v>4391</v>
+        <v>4593</v>
       </c>
       <c r="E7" t="n">
-        <v>1439</v>
+        <v>1364</v>
       </c>
       <c r="F7" t="n">
-        <v>10609</v>
+        <v>11166</v>
       </c>
       <c r="G7" t="n">
-        <v>3914</v>
+        <v>4246</v>
       </c>
       <c r="H7" t="n">
-        <v>3551</v>
+        <v>4742</v>
       </c>
       <c r="I7" t="n">
-        <v>4146</v>
+        <v>4132</v>
       </c>
       <c r="J7" t="n">
-        <v>2592</v>
+        <v>2787</v>
       </c>
       <c r="K7" t="n">
-        <v>5831</v>
+        <v>6699</v>
       </c>
       <c r="L7" t="n">
-        <v>28717</v>
+        <v>33189</v>
       </c>
       <c r="M7" t="n">
-        <v>20345</v>
+        <v>23991</v>
       </c>
       <c r="N7" t="n">
-        <v>5838</v>
+        <v>6532</v>
       </c>
       <c r="O7" t="n">
-        <v>5046</v>
+        <v>5565</v>
       </c>
       <c r="P7" t="n">
-        <v>12180</v>
+        <v>13306</v>
       </c>
       <c r="Q7" t="n">
-        <v>3573</v>
+        <v>3980</v>
       </c>
       <c r="R7" t="n">
-        <v>2824</v>
+        <v>2906</v>
       </c>
       <c r="S7" t="n">
-        <v>4881</v>
+        <v>5281</v>
       </c>
       <c r="T7" t="n">
-        <v>946</v>
+        <v>1130</v>
       </c>
       <c r="U7" t="n">
-        <v>253</v>
+        <v>1464</v>
       </c>
       <c r="V7" t="n">
-        <v>6657</v>
+        <v>8380</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2014年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5855</v>
+        <v>6538</v>
       </c>
       <c r="C8" t="n">
-        <v>160</v>
+        <v>205</v>
       </c>
       <c r="D8" t="n">
-        <v>4770</v>
+        <v>5041</v>
       </c>
       <c r="E8" t="n">
-        <v>1469</v>
+        <v>1366</v>
       </c>
       <c r="F8" t="n">
-        <v>11249</v>
+        <v>11501</v>
       </c>
       <c r="G8" t="n">
-        <v>4202</v>
+        <v>4548</v>
       </c>
       <c r="H8" t="n">
-        <v>3996</v>
+        <v>6336</v>
       </c>
       <c r="I8" t="n">
-        <v>4249</v>
+        <v>4172</v>
       </c>
       <c r="J8" t="n">
-        <v>2761</v>
+        <v>2818</v>
       </c>
       <c r="K8" t="n">
-        <v>6404</v>
+        <v>7216</v>
       </c>
       <c r="L8" t="n">
-        <v>31782</v>
+        <v>35340</v>
       </c>
       <c r="M8" t="n">
-        <v>22802</v>
+        <v>25632</v>
       </c>
       <c r="N8" t="n">
-        <v>6232</v>
+        <v>6851</v>
       </c>
       <c r="O8" t="n">
-        <v>5415</v>
+        <v>5706</v>
       </c>
       <c r="P8" t="n">
-        <v>12859</v>
+        <v>13936</v>
       </c>
       <c r="Q8" t="n">
-        <v>3827</v>
+        <v>4365</v>
       </c>
       <c r="R8" t="n">
-        <v>2945</v>
+        <v>3031</v>
       </c>
       <c r="S8" t="n">
-        <v>5165</v>
+        <v>5517</v>
       </c>
       <c r="T8" t="n">
-        <v>1087</v>
+        <v>1198</v>
       </c>
       <c r="U8" t="n">
-        <v>555</v>
+        <v>3162</v>
       </c>
       <c r="V8" t="n">
-        <v>7524</v>
+        <v>9359</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2015年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>6071</v>
+        <v>6203</v>
       </c>
       <c r="C9" t="n">
-        <v>176</v>
+        <v>204</v>
       </c>
       <c r="D9" t="n">
-        <v>4593</v>
+        <v>4958</v>
       </c>
       <c r="E9" t="n">
-        <v>1364</v>
+        <v>1323</v>
       </c>
       <c r="F9" t="n">
-        <v>11166</v>
+        <v>11352</v>
       </c>
       <c r="G9" t="n">
-        <v>4246</v>
+        <v>4475</v>
       </c>
       <c r="H9" t="n">
-        <v>4742</v>
+        <v>6938</v>
       </c>
       <c r="I9" t="n">
-        <v>4132</v>
+        <v>4120</v>
       </c>
       <c r="J9" t="n">
-        <v>2787</v>
+        <v>2657</v>
       </c>
       <c r="K9" t="n">
-        <v>6699</v>
+        <v>7732</v>
       </c>
       <c r="L9" t="n">
-        <v>33189</v>
+        <v>37496</v>
       </c>
       <c r="M9" t="n">
-        <v>23991</v>
+        <v>27493</v>
       </c>
       <c r="N9" t="n">
-        <v>6532</v>
+        <v>6311</v>
       </c>
       <c r="O9" t="n">
-        <v>5565</v>
+        <v>5443</v>
       </c>
       <c r="P9" t="n">
-        <v>13306</v>
+        <v>12998</v>
       </c>
       <c r="Q9" t="n">
-        <v>3980</v>
+        <v>4372</v>
       </c>
       <c r="R9" t="n">
-        <v>2906</v>
+        <v>2999</v>
       </c>
       <c r="S9" t="n">
-        <v>5281</v>
+        <v>5335</v>
       </c>
       <c r="T9" t="n">
-        <v>1130</v>
+        <v>1309</v>
       </c>
       <c r="U9" t="n">
-        <v>1464</v>
+        <v>4061</v>
       </c>
       <c r="V9" t="n">
-        <v>8380</v>
+        <v>9319</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2016年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6538</v>
+        <v>5688</v>
       </c>
       <c r="C10" t="n">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D10" t="n">
-        <v>5041</v>
+        <v>4746</v>
       </c>
       <c r="E10" t="n">
-        <v>1366</v>
+        <v>1180</v>
       </c>
       <c r="F10" t="n">
-        <v>11501</v>
+        <v>11074</v>
       </c>
       <c r="G10" t="n">
-        <v>4548</v>
+        <v>4311</v>
       </c>
       <c r="H10" t="n">
-        <v>6336</v>
+        <v>7336</v>
       </c>
       <c r="I10" t="n">
-        <v>4172</v>
+        <v>4209</v>
       </c>
       <c r="J10" t="n">
-        <v>2818</v>
+        <v>2497</v>
       </c>
       <c r="K10" t="n">
-        <v>7216</v>
+        <v>7692</v>
       </c>
       <c r="L10" t="n">
-        <v>35340</v>
+        <v>38391</v>
       </c>
       <c r="M10" t="n">
-        <v>25632</v>
+        <v>27755</v>
       </c>
       <c r="N10" t="n">
-        <v>6851</v>
+        <v>5910</v>
       </c>
       <c r="O10" t="n">
-        <v>5706</v>
+        <v>5127</v>
       </c>
       <c r="P10" t="n">
-        <v>13936</v>
+        <v>12418</v>
       </c>
       <c r="Q10" t="n">
-        <v>4365</v>
+        <v>3791</v>
       </c>
       <c r="R10" t="n">
-        <v>3031</v>
+        <v>2800</v>
       </c>
       <c r="S10" t="n">
-        <v>5517</v>
+        <v>5269</v>
       </c>
       <c r="T10" t="n">
-        <v>1198</v>
+        <v>1348</v>
       </c>
       <c r="U10" t="n">
-        <v>3162</v>
+        <v>4872</v>
       </c>
       <c r="V10" t="n">
-        <v>9359</v>
+        <v>8728</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2017年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>6203</v>
+        <v>5581</v>
       </c>
       <c r="C11" t="n">
-        <v>204</v>
+        <v>220</v>
       </c>
       <c r="D11" t="n">
-        <v>4958</v>
+        <v>5227</v>
       </c>
       <c r="E11" t="n">
-        <v>1323</v>
+        <v>1231</v>
       </c>
       <c r="F11" t="n">
-        <v>11352</v>
+        <v>11542</v>
       </c>
       <c r="G11" t="n">
-        <v>4475</v>
+        <v>4478</v>
       </c>
       <c r="H11" t="n">
-        <v>6938</v>
+        <v>8848</v>
       </c>
       <c r="I11" t="n">
-        <v>4120</v>
+        <v>4491</v>
       </c>
       <c r="J11" t="n">
-        <v>2657</v>
+        <v>2603</v>
       </c>
       <c r="K11" t="n">
-        <v>7732</v>
+        <v>8535</v>
       </c>
       <c r="L11" t="n">
-        <v>37496</v>
+        <v>39931</v>
       </c>
       <c r="M11" t="n">
-        <v>27493</v>
+        <v>28371</v>
       </c>
       <c r="N11" t="n">
-        <v>6311</v>
+        <v>5908</v>
       </c>
       <c r="O11" t="n">
-        <v>5443</v>
+        <v>5337</v>
       </c>
       <c r="P11" t="n">
-        <v>12998</v>
+        <v>12490</v>
       </c>
       <c r="Q11" t="n">
-        <v>4372</v>
+        <v>4255</v>
       </c>
       <c r="R11" t="n">
-        <v>2999</v>
+        <v>2808</v>
       </c>
       <c r="S11" t="n">
-        <v>5335</v>
+        <v>5215</v>
       </c>
       <c r="T11" t="n">
-        <v>1309</v>
+        <v>1563</v>
       </c>
       <c r="U11" t="n">
-        <v>4061</v>
+        <v>6404</v>
       </c>
       <c r="V11" t="n">
-        <v>9319</v>
+        <v>9035</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2018年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>5688</v>
+        <v>5650</v>
       </c>
       <c r="C12" t="n">
-        <v>204</v>
+        <v>237</v>
       </c>
       <c r="D12" t="n">
-        <v>4746</v>
+        <v>5580</v>
       </c>
       <c r="E12" t="n">
-        <v>1180</v>
+        <v>1265</v>
       </c>
       <c r="F12" t="n">
-        <v>11074</v>
+        <v>11862</v>
       </c>
       <c r="G12" t="n">
-        <v>4311</v>
+        <v>4697</v>
       </c>
       <c r="H12" t="n">
-        <v>7336</v>
+        <v>10759</v>
       </c>
       <c r="I12" t="n">
-        <v>4209</v>
+        <v>4694</v>
       </c>
       <c r="J12" t="n">
-        <v>2497</v>
+        <v>2530</v>
       </c>
       <c r="K12" t="n">
-        <v>7692</v>
+        <v>9176</v>
       </c>
       <c r="L12" t="n">
-        <v>38391</v>
+        <v>41065</v>
       </c>
       <c r="M12" t="n">
-        <v>27755</v>
+        <v>28951</v>
       </c>
       <c r="N12" t="n">
-        <v>5910</v>
+        <v>6071</v>
       </c>
       <c r="O12" t="n">
-        <v>5127</v>
+        <v>5294</v>
       </c>
       <c r="P12" t="n">
-        <v>12418</v>
+        <v>13111</v>
       </c>
       <c r="Q12" t="n">
-        <v>3791</v>
+        <v>4589</v>
       </c>
       <c r="R12" t="n">
-        <v>2800</v>
+        <v>2775</v>
       </c>
       <c r="S12" t="n">
-        <v>5269</v>
+        <v>5597</v>
       </c>
       <c r="T12" t="n">
-        <v>1348</v>
+        <v>1741</v>
       </c>
       <c r="U12" t="n">
-        <v>4872</v>
+        <v>8458</v>
       </c>
       <c r="V12" t="n">
-        <v>8728</v>
+        <v>9743</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2019年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>5581</v>
+        <v>6425</v>
       </c>
       <c r="C13" t="n">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="D13" t="n">
-        <v>5227</v>
+        <v>5922</v>
       </c>
       <c r="E13" t="n">
-        <v>1231</v>
+        <v>1351</v>
       </c>
       <c r="F13" t="n">
-        <v>11542</v>
+        <v>12740</v>
       </c>
       <c r="G13" t="n">
-        <v>4478</v>
+        <v>5208</v>
       </c>
       <c r="H13" t="n">
-        <v>8848</v>
+        <v>13124</v>
       </c>
       <c r="I13" t="n">
-        <v>4491</v>
+        <v>5013</v>
       </c>
       <c r="J13" t="n">
-        <v>2603</v>
+        <v>2583</v>
       </c>
       <c r="K13" t="n">
-        <v>8535</v>
+        <v>10435</v>
       </c>
       <c r="L13" t="n">
-        <v>39931</v>
+        <v>43651</v>
       </c>
       <c r="M13" t="n">
-        <v>28371</v>
+        <v>30169</v>
       </c>
       <c r="N13" t="n">
-        <v>5908</v>
+        <v>6104</v>
       </c>
       <c r="O13" t="n">
-        <v>5337</v>
+        <v>5596</v>
       </c>
       <c r="P13" t="n">
-        <v>12490</v>
+        <v>14068</v>
       </c>
       <c r="Q13" t="n">
-        <v>4255</v>
+        <v>4833</v>
       </c>
       <c r="R13" t="n">
-        <v>2808</v>
+        <v>2938</v>
       </c>
       <c r="S13" t="n">
-        <v>5215</v>
+        <v>6359</v>
       </c>
       <c r="T13" t="n">
-        <v>1563</v>
+        <v>2022</v>
       </c>
       <c r="U13" t="n">
-        <v>6404</v>
+        <v>10840</v>
       </c>
       <c r="V13" t="n">
-        <v>9035</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>5650</v>
-      </c>
-      <c r="C14" t="n">
-        <v>237</v>
-      </c>
-      <c r="D14" t="n">
-        <v>5580</v>
-      </c>
-      <c r="E14" t="n">
-        <v>1265</v>
-      </c>
-      <c r="F14" t="n">
-        <v>11862</v>
-      </c>
-      <c r="G14" t="n">
-        <v>4697</v>
-      </c>
-      <c r="H14" t="n">
-        <v>10759</v>
-      </c>
-      <c r="I14" t="n">
-        <v>4694</v>
-      </c>
-      <c r="J14" t="n">
-        <v>2530</v>
-      </c>
-      <c r="K14" t="n">
-        <v>9176</v>
-      </c>
-      <c r="L14" t="n">
-        <v>41065</v>
-      </c>
-      <c r="M14" t="n">
-        <v>28951</v>
-      </c>
-      <c r="N14" t="n">
-        <v>6071</v>
-      </c>
-      <c r="O14" t="n">
-        <v>5294</v>
-      </c>
-      <c r="P14" t="n">
-        <v>13111</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>4589</v>
-      </c>
-      <c r="R14" t="n">
-        <v>2775</v>
-      </c>
-      <c r="S14" t="n">
-        <v>5597</v>
-      </c>
-      <c r="T14" t="n">
-        <v>1741</v>
-      </c>
-      <c r="U14" t="n">
-        <v>8458</v>
-      </c>
-      <c r="V14" t="n">
-        <v>9743</v>
+        <v>11263</v>
       </c>
     </row>
   </sheetData>
